--- a/SYEI_stamping_press_system/尺寸整理表_2.xlsx
+++ b/SYEI_stamping_press_system/尺寸整理表_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B16A0A4-D297-4829-8491-A55AB39969DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8803784-667B-41D9-94A9-1246017C5025}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FRAME12" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="FRAME51" sheetId="5" r:id="rId7"/>
     <sheet name="FRAME52" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="94">
   <si>
     <t>變數                                                                 噸數</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -391,6 +391,21 @@
   </si>
   <si>
     <t>m3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1029,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3134,7 +3149,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3258,13 +3273,13 @@
         <v>50</v>
       </c>
       <c r="H4" s="4">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I4" s="4">
         <v>50</v>
       </c>
       <c r="J4" s="4">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -5024,7 +5039,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5369,7 +5384,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="5">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H11" s="4">
         <v>18</v>
@@ -5425,10 +5440,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909EF85F-03EE-4F5D-9688-EA3A44780739}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5469,31 +5484,31 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18">
-        <v>0</v>
-      </c>
-      <c r="D2" s="18">
-        <v>0</v>
-      </c>
-      <c r="E2" s="18">
-        <v>0</v>
-      </c>
-      <c r="F2" s="18">
-        <v>0</v>
-      </c>
-      <c r="G2" s="18">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="18">
-        <v>0</v>
-      </c>
-      <c r="J2" s="18">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>150</v>
+      </c>
+      <c r="H2" s="4">
+        <v>200</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
         <v>211</v>
       </c>
     </row>
@@ -5501,31 +5516,31 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18">
-        <v>0</v>
-      </c>
-      <c r="C3" s="18">
-        <v>0</v>
-      </c>
-      <c r="D3" s="18">
-        <v>0</v>
-      </c>
-      <c r="E3" s="18">
-        <v>0</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>0</v>
-      </c>
-      <c r="I3" s="18">
-        <v>0</v>
-      </c>
-      <c r="J3" s="18">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>50</v>
+      </c>
+      <c r="H3" s="4">
+        <v>65</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
         <v>70</v>
       </c>
     </row>
@@ -5533,31 +5548,31 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18">
-        <v>0</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0</v>
-      </c>
-      <c r="E4" s="18">
-        <v>0</v>
-      </c>
-      <c r="F4" s="18">
-        <v>0</v>
-      </c>
-      <c r="G4" s="18">
-        <v>0</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0</v>
-      </c>
-      <c r="I4" s="18">
-        <v>0</v>
-      </c>
-      <c r="J4" s="18">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
         <v>201</v>
       </c>
     </row>
@@ -5565,31 +5580,31 @@
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18">
-        <v>0</v>
-      </c>
-      <c r="C5" s="18">
-        <v>0</v>
-      </c>
-      <c r="D5" s="18">
-        <v>0</v>
-      </c>
-      <c r="E5" s="18">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0</v>
-      </c>
-      <c r="G5" s="18">
-        <v>0</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0</v>
-      </c>
-      <c r="I5" s="18">
-        <v>0</v>
-      </c>
-      <c r="J5" s="18">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
         <v>160</v>
       </c>
     </row>
@@ -5597,31 +5612,31 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="18">
-        <v>0</v>
-      </c>
-      <c r="C6" s="18">
-        <v>0</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0</v>
-      </c>
-      <c r="E6" s="18">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18">
-        <v>0</v>
-      </c>
-      <c r="G6" s="18">
-        <v>0</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0</v>
-      </c>
-      <c r="I6" s="18">
-        <v>0</v>
-      </c>
-      <c r="J6" s="18">
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>40</v>
+      </c>
+      <c r="H6" s="4">
+        <v>50</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
         <v>50</v>
       </c>
     </row>
@@ -5629,31 +5644,31 @@
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18">
-        <v>0</v>
-      </c>
-      <c r="C7" s="18">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0</v>
-      </c>
-      <c r="E7" s="18">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0</v>
-      </c>
-      <c r="I7" s="18">
-        <v>0</v>
-      </c>
-      <c r="J7" s="18">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>20</v>
+      </c>
+      <c r="H7" s="4">
+        <v>25</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
         <v>25</v>
       </c>
     </row>
@@ -5661,31 +5676,383 @@
       <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="18">
-        <v>0</v>
-      </c>
-      <c r="C8" s="18">
-        <v>0</v>
-      </c>
-      <c r="D8" s="18">
-        <v>0</v>
-      </c>
-      <c r="E8" s="18">
-        <v>0</v>
-      </c>
-      <c r="F8" s="18">
-        <v>0</v>
-      </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18">
-        <v>0</v>
-      </c>
-      <c r="I8" s="18">
-        <v>0</v>
-      </c>
-      <c r="J8" s="18">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>35</v>
+      </c>
+      <c r="H8" s="4">
+        <v>35</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>15</v>
+      </c>
+      <c r="H9" s="4">
+        <v>25</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>35</v>
+      </c>
+      <c r="H10" s="4">
+        <v>35</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>25</v>
+      </c>
+      <c r="H13" s="4">
+        <v>50</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>100</v>
+      </c>
+      <c r="H14" s="4">
+        <v>100</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4">
+        <v>25</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>35</v>
+      </c>
+      <c r="H18" s="4">
+        <v>35</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>45</v>
+      </c>
+      <c r="H19" s="4">
+        <v>35</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
         <v>35</v>
       </c>
     </row>

--- a/SYEI_stamping_press_system/尺寸整理表_2.xlsx
+++ b/SYEI_stamping_press_system/尺寸整理表_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8803784-667B-41D9-94A9-1246017C5025}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4864040B-AAAA-465F-98F7-7A5522062CC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FRAME12" sheetId="1" r:id="rId1"/>
@@ -5039,7 +5039,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5443,7 +5443,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="A1:XFD1048576"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
